--- a/Homework1/Exer3/Tumor.xlsx
+++ b/Homework1/Exer3/Tumor.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="1">
-  <si>
-    <t>M</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -60,107 +56,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -478,10 +374,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +705,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:J10">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -821,7 +718,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,31 +760,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -895,31 +792,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -927,31 +824,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -959,31 +856,31 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -991,31 +888,31 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1023,31 +920,31 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1055,31 +952,31 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1087,31 +984,31 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1119,36 +1016,36 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:J10">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
